--- a/data/pca/factorExposure/factorExposure_2011-10-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01333056295609118</v>
+        <v>-0.01406945070167599</v>
       </c>
       <c r="C2">
-        <v>-0.03171984467344166</v>
+        <v>0.0006322894133801579</v>
       </c>
       <c r="D2">
-        <v>0.01915127036592352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03187634473639975</v>
+      </c>
+      <c r="E2">
+        <v>0.001232028830913942</v>
+      </c>
+      <c r="F2">
+        <v>-0.03837732520162877</v>
+      </c>
+      <c r="G2">
+        <v>0.01465674502665188</v>
+      </c>
+      <c r="H2">
+        <v>-0.01143940060887614</v>
+      </c>
+      <c r="I2">
+        <v>-0.005270506224739175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.07790950909355998</v>
+        <v>-0.09200381565468366</v>
       </c>
       <c r="C4">
-        <v>-0.05933059065531085</v>
+        <v>0.04133510313303302</v>
       </c>
       <c r="D4">
-        <v>0.08124993178331971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07603384997399891</v>
+      </c>
+      <c r="E4">
+        <v>-0.03047006350079219</v>
+      </c>
+      <c r="F4">
+        <v>-0.05282474535783192</v>
+      </c>
+      <c r="G4">
+        <v>-0.02494474968165204</v>
+      </c>
+      <c r="H4">
+        <v>0.01099679087384054</v>
+      </c>
+      <c r="I4">
+        <v>0.07185087950609982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.1159688749268743</v>
+        <v>-0.126972079921726</v>
       </c>
       <c r="C6">
-        <v>-0.0492910592914518</v>
+        <v>-0.004549940316597956</v>
       </c>
       <c r="D6">
-        <v>0.01045088632824975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03620610311879881</v>
+      </c>
+      <c r="E6">
+        <v>0.02489833256035182</v>
+      </c>
+      <c r="F6">
+        <v>-0.03967500953367917</v>
+      </c>
+      <c r="G6">
+        <v>-0.05325897179718542</v>
+      </c>
+      <c r="H6">
+        <v>-0.1889689344271128</v>
+      </c>
+      <c r="I6">
+        <v>-0.01465495579670148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.06524421350788594</v>
+        <v>-0.06850689620818887</v>
       </c>
       <c r="C7">
-        <v>-0.04541621014099033</v>
+        <v>0.03738104916502394</v>
       </c>
       <c r="D7">
-        <v>0.03335019061950865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05261624671492836</v>
+      </c>
+      <c r="E7">
+        <v>-0.01164889802270672</v>
+      </c>
+      <c r="F7">
+        <v>-0.05644254019382571</v>
+      </c>
+      <c r="G7">
+        <v>0.01606216937607999</v>
+      </c>
+      <c r="H7">
+        <v>0.01334560014865248</v>
+      </c>
+      <c r="I7">
+        <v>0.03728231015021005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04275277881238859</v>
+        <v>-0.04270768659161613</v>
       </c>
       <c r="C8">
-        <v>0.003034871122411728</v>
+        <v>0.02804011420816429</v>
       </c>
       <c r="D8">
-        <v>0.06136099725039445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.008537465446592847</v>
+      </c>
+      <c r="E8">
+        <v>-0.03610736415706183</v>
+      </c>
+      <c r="F8">
+        <v>-0.07020178354712341</v>
+      </c>
+      <c r="G8">
+        <v>-0.04860482041171114</v>
+      </c>
+      <c r="H8">
+        <v>-0.02307235025501223</v>
+      </c>
+      <c r="I8">
+        <v>0.1144460667033227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07293237029073242</v>
+        <v>-0.08305908973715857</v>
       </c>
       <c r="C9">
-        <v>-0.04091735396121575</v>
+        <v>0.04208032683120622</v>
       </c>
       <c r="D9">
-        <v>0.07547931041541263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0581288614275159</v>
+      </c>
+      <c r="E9">
+        <v>-0.0327358660449387</v>
+      </c>
+      <c r="F9">
+        <v>-0.05049002135974132</v>
+      </c>
+      <c r="G9">
+        <v>-0.03844888573276228</v>
+      </c>
+      <c r="H9">
+        <v>0.01759718622124978</v>
+      </c>
+      <c r="I9">
+        <v>0.07584839218699764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02516061598374779</v>
+        <v>-0.06038800497136051</v>
       </c>
       <c r="C10">
-        <v>-0.02499416433904465</v>
+        <v>-0.1931892749483946</v>
       </c>
       <c r="D10">
-        <v>-0.1776767311413699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.03817243686668726</v>
+      </c>
+      <c r="E10">
+        <v>0.0001997809679333441</v>
+      </c>
+      <c r="F10">
+        <v>-0.05378607314144521</v>
+      </c>
+      <c r="G10">
+        <v>0.04006026273217151</v>
+      </c>
+      <c r="H10">
+        <v>-0.04665350631871824</v>
+      </c>
+      <c r="I10">
+        <v>-0.06129188952170302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.07051050250868625</v>
+        <v>-0.07483755336012017</v>
       </c>
       <c r="C11">
-        <v>-0.03669769242113413</v>
+        <v>0.04350291316358539</v>
       </c>
       <c r="D11">
-        <v>0.05853041226039922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04784233962485012</v>
+      </c>
+      <c r="E11">
+        <v>-0.008223251567824998</v>
+      </c>
+      <c r="F11">
+        <v>-0.04247225773236823</v>
+      </c>
+      <c r="G11">
+        <v>-0.05202974538964825</v>
+      </c>
+      <c r="H11">
+        <v>0.04861503175481312</v>
+      </c>
+      <c r="I11">
+        <v>0.06909793141147259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.06663967448408509</v>
+        <v>-0.07096508366493622</v>
       </c>
       <c r="C12">
-        <v>-0.04845376613446935</v>
+        <v>0.03001382628794585</v>
       </c>
       <c r="D12">
-        <v>0.0449493776139709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05063347020253906</v>
+      </c>
+      <c r="E12">
+        <v>-0.01476088281074713</v>
+      </c>
+      <c r="F12">
+        <v>-0.02947739299366203</v>
+      </c>
+      <c r="G12">
+        <v>-0.02747202053549929</v>
+      </c>
+      <c r="H12">
+        <v>0.01968307570035635</v>
+      </c>
+      <c r="I12">
+        <v>0.08678626962769681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06758720690061618</v>
+        <v>-0.06598232360659695</v>
       </c>
       <c r="C13">
-        <v>-0.0477677818765691</v>
+        <v>0.02829212380881264</v>
       </c>
       <c r="D13">
-        <v>0.05943822057692839</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04831535228255365</v>
+      </c>
+      <c r="E13">
+        <v>-0.0512156716382617</v>
+      </c>
+      <c r="F13">
+        <v>-0.02464499136922616</v>
+      </c>
+      <c r="G13">
+        <v>-0.004199320110452077</v>
+      </c>
+      <c r="H13">
+        <v>0.03926828479027895</v>
+      </c>
+      <c r="I13">
+        <v>0.09952086489726136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03104259625802067</v>
+        <v>-0.04094084227164423</v>
       </c>
       <c r="C14">
-        <v>-0.03223482094572089</v>
+        <v>-0.0004947501159564575</v>
       </c>
       <c r="D14">
-        <v>0.003350701555315292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03525580023952466</v>
+      </c>
+      <c r="E14">
+        <v>-0.01697828536852128</v>
+      </c>
+      <c r="F14">
+        <v>-0.02157313447981125</v>
+      </c>
+      <c r="G14">
+        <v>-0.02718694537069641</v>
+      </c>
+      <c r="H14">
+        <v>0.06668840488389462</v>
+      </c>
+      <c r="I14">
+        <v>0.05034621318192874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.04649560588320426</v>
+        <v>-0.04128734841792524</v>
       </c>
       <c r="C15">
-        <v>-0.009174536864438363</v>
+        <v>0.01481705718732818</v>
       </c>
       <c r="D15">
-        <v>0.02454063931608914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007329930157484869</v>
+      </c>
+      <c r="E15">
+        <v>-0.03670777945816968</v>
+      </c>
+      <c r="F15">
+        <v>-0.001400433252498987</v>
+      </c>
+      <c r="G15">
+        <v>-0.02303101772301467</v>
+      </c>
+      <c r="H15">
+        <v>0.02082436402322669</v>
+      </c>
+      <c r="I15">
+        <v>0.02556172402042981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.06008257337857741</v>
+        <v>-0.0714015863695594</v>
       </c>
       <c r="C16">
-        <v>-0.03995406991200393</v>
+        <v>0.04196132965497842</v>
       </c>
       <c r="D16">
-        <v>0.06047143043440311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05557381361756194</v>
+      </c>
+      <c r="E16">
+        <v>-0.01544866896167221</v>
+      </c>
+      <c r="F16">
+        <v>-0.03368336236278073</v>
+      </c>
+      <c r="G16">
+        <v>-0.02651435120766226</v>
+      </c>
+      <c r="H16">
+        <v>0.03076460096913203</v>
+      </c>
+      <c r="I16">
+        <v>0.04365012929313458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.06418912827739338</v>
+        <v>-0.06180096964638018</v>
       </c>
       <c r="C20">
-        <v>-0.02032034037038903</v>
+        <v>0.03619195688307296</v>
       </c>
       <c r="D20">
-        <v>0.05549880880620103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02626445877037216</v>
+      </c>
+      <c r="E20">
+        <v>-0.004016345078156386</v>
+      </c>
+      <c r="F20">
+        <v>-0.03069400534343818</v>
+      </c>
+      <c r="G20">
+        <v>-0.01776124588762943</v>
+      </c>
+      <c r="H20">
+        <v>0.04337590259922098</v>
+      </c>
+      <c r="I20">
+        <v>0.1021883884866997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03525905841784752</v>
+        <v>-0.03045801675673328</v>
       </c>
       <c r="C21">
-        <v>-0.007345810244627126</v>
+        <v>0.01671618212414015</v>
       </c>
       <c r="D21">
-        <v>0.007832255846253687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.007409405651726307</v>
+      </c>
+      <c r="E21">
+        <v>-0.0378120084032507</v>
+      </c>
+      <c r="F21">
+        <v>0.001721558237283769</v>
+      </c>
+      <c r="G21">
+        <v>-0.004600031214938337</v>
+      </c>
+      <c r="H21">
+        <v>-0.0557158871393405</v>
+      </c>
+      <c r="I21">
+        <v>0.02603429422517691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.1113083208022703</v>
+        <v>-0.09559117112479404</v>
       </c>
       <c r="C22">
-        <v>-0.02861498573428413</v>
+        <v>0.04937576928498458</v>
       </c>
       <c r="D22">
-        <v>0.08288149334045959</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01471656267703489</v>
+      </c>
+      <c r="E22">
+        <v>-0.5535888827844665</v>
+      </c>
+      <c r="F22">
+        <v>-0.04925960455543234</v>
+      </c>
+      <c r="G22">
+        <v>0.2710881152210478</v>
+      </c>
+      <c r="H22">
+        <v>-0.133708341896722</v>
+      </c>
+      <c r="I22">
+        <v>-0.2311204894588402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.1120137918212033</v>
+        <v>-0.09641403334114695</v>
       </c>
       <c r="C23">
-        <v>-0.02956761469357613</v>
+        <v>0.04956648805865019</v>
       </c>
       <c r="D23">
-        <v>0.08294914679711786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01586799827291197</v>
+      </c>
+      <c r="E23">
+        <v>-0.5569629423053</v>
+      </c>
+      <c r="F23">
+        <v>-0.051026374142405</v>
+      </c>
+      <c r="G23">
+        <v>0.2656124876096972</v>
+      </c>
+      <c r="H23">
+        <v>-0.1331117960612993</v>
+      </c>
+      <c r="I23">
+        <v>-0.2336751604473279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.07770655692675231</v>
+        <v>-0.08133025422491305</v>
       </c>
       <c r="C24">
-        <v>-0.04474871053608526</v>
+        <v>0.04010174941255514</v>
       </c>
       <c r="D24">
-        <v>0.06193721891457233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05368703374542954</v>
+      </c>
+      <c r="E24">
+        <v>-0.0205550799803283</v>
+      </c>
+      <c r="F24">
+        <v>-0.04215796131850483</v>
+      </c>
+      <c r="G24">
+        <v>-0.04377104332053244</v>
+      </c>
+      <c r="H24">
+        <v>0.02225193161542966</v>
+      </c>
+      <c r="I24">
+        <v>0.06388906144271968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.07617201216897129</v>
+        <v>-0.07669253273185793</v>
       </c>
       <c r="C25">
-        <v>-0.05210518942353016</v>
+        <v>0.03218264664282201</v>
       </c>
       <c r="D25">
-        <v>0.05779851196711055</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0566623189182787</v>
+      </c>
+      <c r="E25">
+        <v>-0.02851028866055383</v>
+      </c>
+      <c r="F25">
+        <v>-0.03637909514511894</v>
+      </c>
+      <c r="G25">
+        <v>-0.04618820804252629</v>
+      </c>
+      <c r="H25">
+        <v>0.03065799823956691</v>
+      </c>
+      <c r="I25">
+        <v>0.07583539919721781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.04795655831641927</v>
+        <v>-0.04547969465579956</v>
       </c>
       <c r="C26">
-        <v>-0.008741819876512668</v>
+        <v>0.0178184620925976</v>
       </c>
       <c r="D26">
-        <v>0.01173279246323584</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.004296742408090861</v>
+      </c>
+      <c r="E26">
+        <v>-0.03815799941033247</v>
+      </c>
+      <c r="F26">
+        <v>-0.02748333623296774</v>
+      </c>
+      <c r="G26">
+        <v>-0.01305508426286658</v>
+      </c>
+      <c r="H26">
+        <v>0.04609897176060297</v>
+      </c>
+      <c r="I26">
+        <v>0.003492337302759886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.04414836152113528</v>
+        <v>-0.07500209920434819</v>
       </c>
       <c r="C28">
-        <v>-0.05962983024305965</v>
+        <v>-0.2909781821603704</v>
       </c>
       <c r="D28">
-        <v>-0.2840785661933728</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.05864915832351075</v>
+      </c>
+      <c r="E28">
+        <v>-0.008121259868254217</v>
+      </c>
+      <c r="F28">
+        <v>-0.03404106640281979</v>
+      </c>
+      <c r="G28">
+        <v>-0.02798758255530423</v>
+      </c>
+      <c r="H28">
+        <v>-0.03546972240591283</v>
+      </c>
+      <c r="I28">
+        <v>-0.01550544215825944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.05179491359827645</v>
+        <v>-0.05404926434090533</v>
       </c>
       <c r="C29">
-        <v>-0.04585188632809755</v>
+        <v>-0.004550364550084242</v>
       </c>
       <c r="D29">
-        <v>-0.002765682117752682</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03812051481406228</v>
+      </c>
+      <c r="E29">
+        <v>-0.03489738614655812</v>
+      </c>
+      <c r="F29">
+        <v>-0.03500055100932917</v>
+      </c>
+      <c r="G29">
+        <v>-0.01280677640384297</v>
+      </c>
+      <c r="H29">
+        <v>0.08819084352573069</v>
+      </c>
+      <c r="I29">
+        <v>0.04003392242436469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1381089277174976</v>
+        <v>-0.1283482242538842</v>
       </c>
       <c r="C30">
-        <v>-0.07610368999987878</v>
+        <v>0.04369492859650315</v>
       </c>
       <c r="D30">
-        <v>0.09925648327252526</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07783773716210235</v>
+      </c>
+      <c r="E30">
+        <v>-0.0694585603197862</v>
+      </c>
+      <c r="F30">
+        <v>-0.06820457626772035</v>
+      </c>
+      <c r="G30">
+        <v>-0.05586984798567483</v>
+      </c>
+      <c r="H30">
+        <v>-0.05069213252721798</v>
+      </c>
+      <c r="I30">
+        <v>0.3096405684234839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04990046268324452</v>
+        <v>-0.04549845037602843</v>
       </c>
       <c r="C31">
-        <v>-0.02544739295756593</v>
+        <v>0.03002306317371211</v>
       </c>
       <c r="D31">
-        <v>0.02246217113223777</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02755358721647507</v>
+      </c>
+      <c r="E31">
+        <v>-0.02394760308398546</v>
+      </c>
+      <c r="F31">
+        <v>-0.01285104402806548</v>
+      </c>
+      <c r="G31">
+        <v>0.005227849419768091</v>
+      </c>
+      <c r="H31">
+        <v>0.06192492006585737</v>
+      </c>
+      <c r="I31">
+        <v>0.02859388582818096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.03750957157229757</v>
+        <v>-0.04359073634296585</v>
       </c>
       <c r="C32">
-        <v>-0.01195798878657947</v>
+        <v>-0.002036153284201254</v>
       </c>
       <c r="D32">
-        <v>0.02638102362499352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01163107908123432</v>
+      </c>
+      <c r="E32">
+        <v>-0.07362329678251107</v>
+      </c>
+      <c r="F32">
+        <v>0.005073805110536897</v>
+      </c>
+      <c r="G32">
+        <v>-0.02370523316868691</v>
+      </c>
+      <c r="H32">
+        <v>-0.01255235550762215</v>
+      </c>
+      <c r="I32">
+        <v>-0.01961039655216568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.09179395465705968</v>
+        <v>-0.09667731566265464</v>
       </c>
       <c r="C33">
-        <v>-0.04400695065294443</v>
+        <v>0.03538037279106252</v>
       </c>
       <c r="D33">
-        <v>0.04469034708089623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0442585347293448</v>
+      </c>
+      <c r="E33">
+        <v>-0.02676600338695168</v>
+      </c>
+      <c r="F33">
+        <v>-0.007873339837290494</v>
+      </c>
+      <c r="G33">
+        <v>-0.0008568014269159787</v>
+      </c>
+      <c r="H33">
+        <v>0.05075792713245875</v>
+      </c>
+      <c r="I33">
+        <v>0.07482256884991823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.06059425203829421</v>
+        <v>-0.0678828506660749</v>
       </c>
       <c r="C34">
-        <v>-0.02229628775765451</v>
+        <v>0.03716355952600509</v>
       </c>
       <c r="D34">
-        <v>0.05499265291442684</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03428168971208171</v>
+      </c>
+      <c r="E34">
+        <v>-0.0211996596442069</v>
+      </c>
+      <c r="F34">
+        <v>-0.02763092425852707</v>
+      </c>
+      <c r="G34">
+        <v>-0.0275022190571325</v>
+      </c>
+      <c r="H34">
+        <v>0.03901069435018339</v>
+      </c>
+      <c r="I34">
+        <v>0.05466562406934077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.03693031690006496</v>
+        <v>-0.03595026254764161</v>
       </c>
       <c r="C35">
-        <v>-0.01528555385132953</v>
+        <v>0.01335809778073436</v>
       </c>
       <c r="D35">
-        <v>0.01619664242199844</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0173665035198052</v>
+      </c>
+      <c r="E35">
+        <v>-0.01520581542916361</v>
+      </c>
+      <c r="F35">
+        <v>0.01125210946326681</v>
+      </c>
+      <c r="G35">
+        <v>-0.0008209291285242724</v>
+      </c>
+      <c r="H35">
+        <v>0.03363947517542757</v>
+      </c>
+      <c r="I35">
+        <v>0.04625342645973924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.03179066723153814</v>
+        <v>-0.03093626784821529</v>
       </c>
       <c r="C36">
-        <v>-0.01560755113061894</v>
+        <v>0.01133616320513663</v>
       </c>
       <c r="D36">
-        <v>0.01939941832323429</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01489418111240793</v>
+      </c>
+      <c r="E36">
+        <v>-0.03297673613519841</v>
+      </c>
+      <c r="F36">
+        <v>-0.03511864347129649</v>
+      </c>
+      <c r="G36">
+        <v>-0.01377431822686038</v>
+      </c>
+      <c r="H36">
+        <v>0.03744771054396739</v>
+      </c>
+      <c r="I36">
+        <v>0.06114316858862006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.06866074664853881</v>
+        <v>-0.05941370822567126</v>
       </c>
       <c r="C38">
-        <v>-0.001779899057105031</v>
+        <v>0.02678308379998801</v>
       </c>
       <c r="D38">
-        <v>-0.0009282074228461692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.004715393569901342</v>
+      </c>
+      <c r="E38">
+        <v>-0.03769175970052602</v>
+      </c>
+      <c r="F38">
+        <v>-0.004447347974214072</v>
+      </c>
+      <c r="G38">
+        <v>0.008104178394942605</v>
+      </c>
+      <c r="H38">
+        <v>0.04049983020847047</v>
+      </c>
+      <c r="I38">
+        <v>0.00901858383976669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.09216069138168642</v>
+        <v>-0.09901024908902697</v>
       </c>
       <c r="C39">
-        <v>-0.05634312311401221</v>
+        <v>0.03114426877011466</v>
       </c>
       <c r="D39">
-        <v>0.04586676493318148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06241133300787586</v>
+      </c>
+      <c r="E39">
+        <v>-0.02110034988487213</v>
+      </c>
+      <c r="F39">
+        <v>-0.02393994705508737</v>
+      </c>
+      <c r="G39">
+        <v>-0.03366773220753139</v>
+      </c>
+      <c r="H39">
+        <v>0.0141227918689734</v>
+      </c>
+      <c r="I39">
+        <v>0.07018813738446192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07795871642415454</v>
+        <v>-0.05749869741796968</v>
       </c>
       <c r="C40">
-        <v>-0.01998778441250077</v>
+        <v>0.03641469902566676</v>
       </c>
       <c r="D40">
-        <v>0.02251489013969311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.004205569850748321</v>
+      </c>
+      <c r="E40">
+        <v>-0.06745526132827609</v>
+      </c>
+      <c r="F40">
+        <v>0.004956371949763335</v>
+      </c>
+      <c r="G40">
+        <v>-0.02480298728828102</v>
+      </c>
+      <c r="H40">
+        <v>-0.05415472710620941</v>
+      </c>
+      <c r="I40">
+        <v>0.2528325429991758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.05242146285287004</v>
+        <v>-0.0463330548026261</v>
       </c>
       <c r="C41">
-        <v>-0.01061581191338967</v>
+        <v>0.03393989266046023</v>
       </c>
       <c r="D41">
-        <v>0.03168802827726554</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01383442942307506</v>
+      </c>
+      <c r="E41">
+        <v>0.005858310239304988</v>
+      </c>
+      <c r="F41">
+        <v>0.0113625266761198</v>
+      </c>
+      <c r="G41">
+        <v>-0.01999685763262584</v>
+      </c>
+      <c r="H41">
+        <v>0.04354199510540907</v>
+      </c>
+      <c r="I41">
+        <v>0.02968051825263471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.05876723757282617</v>
+        <v>-0.06079530298586504</v>
       </c>
       <c r="C43">
-        <v>-0.03055524299748943</v>
+        <v>0.02303386174073477</v>
       </c>
       <c r="D43">
-        <v>0.009686849859026229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03092896765605642</v>
+      </c>
+      <c r="E43">
+        <v>-0.01323779319899414</v>
+      </c>
+      <c r="F43">
+        <v>-0.01797926572128133</v>
+      </c>
+      <c r="G43">
+        <v>0.006524516540910658</v>
+      </c>
+      <c r="H43">
+        <v>0.06147681685152033</v>
+      </c>
+      <c r="I43">
+        <v>0.00274121735800085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.09755103869704547</v>
+        <v>-0.09662340236800393</v>
       </c>
       <c r="C44">
-        <v>-0.01074705775468608</v>
+        <v>0.04717042305115837</v>
       </c>
       <c r="D44">
-        <v>0.0519427380286629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.01977547111240988</v>
+      </c>
+      <c r="E44">
+        <v>-0.08158928171356175</v>
+      </c>
+      <c r="F44">
+        <v>-0.1076657622424163</v>
+      </c>
+      <c r="G44">
+        <v>-0.05488096925202146</v>
+      </c>
+      <c r="H44">
+        <v>0.04473782771668749</v>
+      </c>
+      <c r="I44">
+        <v>0.1320644461992785</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02827994766297244</v>
+        <v>-0.04213571201813945</v>
       </c>
       <c r="C46">
-        <v>-0.02389130942006472</v>
+        <v>0.02063372775844036</v>
       </c>
       <c r="D46">
-        <v>0.03029225622462157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03717732142136381</v>
+      </c>
+      <c r="E46">
+        <v>-0.03035351042544434</v>
+      </c>
+      <c r="F46">
+        <v>-0.03021030886309017</v>
+      </c>
+      <c r="G46">
+        <v>0.003685687543942016</v>
+      </c>
+      <c r="H46">
+        <v>0.02163888238938726</v>
+      </c>
+      <c r="I46">
+        <v>0.01092072283351715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.03916549539001967</v>
+        <v>-0.04732573719073291</v>
       </c>
       <c r="C47">
-        <v>-0.02542316313483529</v>
+        <v>-0.0008253213405860317</v>
       </c>
       <c r="D47">
-        <v>-0.006542446476011919</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02097903078017874</v>
+      </c>
+      <c r="E47">
+        <v>-0.04113750213820774</v>
+      </c>
+      <c r="F47">
+        <v>-0.003287419532742437</v>
+      </c>
+      <c r="G47">
+        <v>0.02855468228772979</v>
+      </c>
+      <c r="H47">
+        <v>0.02262460267536222</v>
+      </c>
+      <c r="I47">
+        <v>0.03719883398065885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.04351089130538395</v>
+        <v>-0.04191169595043626</v>
       </c>
       <c r="C48">
-        <v>-0.02318934659460298</v>
+        <v>0.01323581571795278</v>
       </c>
       <c r="D48">
-        <v>0.02816427421977819</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01780977926975853</v>
+      </c>
+      <c r="E48">
+        <v>-0.04758574467290987</v>
+      </c>
+      <c r="F48">
+        <v>-0.01245083765469165</v>
+      </c>
+      <c r="G48">
+        <v>-0.007263663229913487</v>
+      </c>
+      <c r="H48">
+        <v>0.01278609818836984</v>
+      </c>
+      <c r="I48">
+        <v>0.04159819212780188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>-0.1615709107434925</v>
+        <v>-0.2038256683674847</v>
       </c>
       <c r="C49">
-        <v>-0.0386415872987351</v>
+        <v>0.0120181443310132</v>
       </c>
       <c r="D49">
-        <v>0.02470517748987981</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04748677119829155</v>
+      </c>
+      <c r="E49">
+        <v>0.2100314435873042</v>
+      </c>
+      <c r="F49">
+        <v>0.003890854748052675</v>
+      </c>
+      <c r="G49">
+        <v>0.1233867128551729</v>
+      </c>
+      <c r="H49">
+        <v>-0.2457018941256018</v>
+      </c>
+      <c r="I49">
+        <v>-0.06959132144864216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.05059551642056045</v>
+        <v>-0.04992038378798178</v>
       </c>
       <c r="C50">
-        <v>-0.03613640568544436</v>
+        <v>0.02466758903573527</v>
       </c>
       <c r="D50">
-        <v>0.03469074345180648</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04020849103585719</v>
+      </c>
+      <c r="E50">
+        <v>-0.02622177847047816</v>
+      </c>
+      <c r="F50">
+        <v>-0.008412764445933748</v>
+      </c>
+      <c r="G50">
+        <v>-0.009672165522454753</v>
+      </c>
+      <c r="H50">
+        <v>0.06561285387316394</v>
+      </c>
+      <c r="I50">
+        <v>0.02552398624684741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.02651936081331328</v>
+        <v>-0.03677378048689765</v>
       </c>
       <c r="C51">
-        <v>0.002449257813622826</v>
+        <v>-0.005150679642645802</v>
       </c>
       <c r="D51">
-        <v>-0.01036705038943303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.009042343166282619</v>
+      </c>
+      <c r="E51">
+        <v>0.01024935773942504</v>
+      </c>
+      <c r="F51">
+        <v>-0.01347119164099988</v>
+      </c>
+      <c r="G51">
+        <v>0.0236214638879569</v>
+      </c>
+      <c r="H51">
+        <v>-0.0198402657117582</v>
+      </c>
+      <c r="I51">
+        <v>-0.01561384601164778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1551910895585408</v>
+        <v>-0.1585216541047422</v>
       </c>
       <c r="C53">
-        <v>-0.0766098366684715</v>
+        <v>0.001059458325454877</v>
       </c>
       <c r="D53">
-        <v>-0.0133103618941633</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05668386955740673</v>
+      </c>
+      <c r="E53">
+        <v>0.02832693015591978</v>
+      </c>
+      <c r="F53">
+        <v>0.005926854769415239</v>
+      </c>
+      <c r="G53">
+        <v>0.006895146344322632</v>
+      </c>
+      <c r="H53">
+        <v>0.2071297481183766</v>
+      </c>
+      <c r="I53">
+        <v>-0.09699828193554696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.064109186271972</v>
+        <v>-0.06224005789941441</v>
       </c>
       <c r="C54">
-        <v>-0.02314533189161279</v>
+        <v>0.002930307197332299</v>
       </c>
       <c r="D54">
-        <v>0.01739787809828743</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0185005310613335</v>
+      </c>
+      <c r="E54">
+        <v>-0.06388388623526806</v>
+      </c>
+      <c r="F54">
+        <v>-0.03289428132855621</v>
+      </c>
+      <c r="G54">
+        <v>-0.04755933148276679</v>
+      </c>
+      <c r="H54">
+        <v>0.04130283470954122</v>
+      </c>
+      <c r="I54">
+        <v>0.1178933598965555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1010173783320662</v>
+        <v>-0.1007079502961857</v>
       </c>
       <c r="C55">
-        <v>-0.04901506469542959</v>
+        <v>0.01484599148248096</v>
       </c>
       <c r="D55">
-        <v>0.01126680492756543</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04012791351733372</v>
+      </c>
+      <c r="E55">
+        <v>0.003438346805510907</v>
+      </c>
+      <c r="F55">
+        <v>-0.02170503427676634</v>
+      </c>
+      <c r="G55">
+        <v>-0.0223592632562273</v>
+      </c>
+      <c r="H55">
+        <v>0.1562444298841796</v>
+      </c>
+      <c r="I55">
+        <v>-0.02287368716809888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1446917581455704</v>
+        <v>-0.149794766930237</v>
       </c>
       <c r="C56">
-        <v>-0.09284018575080273</v>
+        <v>0.0114137133455491</v>
       </c>
       <c r="D56">
-        <v>-0.00808391837948293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.07491856779348088</v>
+      </c>
+      <c r="E56">
+        <v>0.01462709003165346</v>
+      </c>
+      <c r="F56">
+        <v>-0.011802278933465</v>
+      </c>
+      <c r="G56">
+        <v>-0.01884767043044272</v>
+      </c>
+      <c r="H56">
+        <v>0.2023633596378967</v>
+      </c>
+      <c r="I56">
+        <v>-0.1129554577491991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1209211781140167</v>
+        <v>-0.08756940340248355</v>
       </c>
       <c r="C58">
-        <v>0.04236939393928821</v>
+        <v>0.06230278682339205</v>
       </c>
       <c r="D58">
-        <v>0.05438062845604345</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06010991579618857</v>
+      </c>
+      <c r="E58">
+        <v>-0.1124837946624514</v>
+      </c>
+      <c r="F58">
+        <v>-0.0500132354869911</v>
+      </c>
+      <c r="G58">
+        <v>0.112885651797249</v>
+      </c>
+      <c r="H58">
+        <v>-0.1772406860068959</v>
+      </c>
+      <c r="I58">
+        <v>0.5303986608072905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1259277102060199</v>
+        <v>-0.1590267432105855</v>
       </c>
       <c r="C59">
-        <v>-0.07727604445941791</v>
+        <v>-0.3567965502979322</v>
       </c>
       <c r="D59">
-        <v>-0.4380138591066157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.09019108310036221</v>
+      </c>
+      <c r="E59">
+        <v>0.004044430037259013</v>
+      </c>
+      <c r="F59">
+        <v>-0.002919331306974332</v>
+      </c>
+      <c r="G59">
+        <v>-0.01140176380925242</v>
+      </c>
+      <c r="H59">
+        <v>0.02770186114424508</v>
+      </c>
+      <c r="I59">
+        <v>-0.04503261002585073</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2109851087687273</v>
+        <v>-0.2404294095736132</v>
       </c>
       <c r="C60">
-        <v>-0.0825478161862335</v>
+        <v>0.01611596431680824</v>
       </c>
       <c r="D60">
-        <v>0.002569058698606054</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.07323560124799958</v>
+      </c>
+      <c r="E60">
+        <v>0.1489923287109913</v>
+      </c>
+      <c r="F60">
+        <v>-0.02118152699458737</v>
+      </c>
+      <c r="G60">
+        <v>-0.001645586533965393</v>
+      </c>
+      <c r="H60">
+        <v>-0.1529099023303057</v>
+      </c>
+      <c r="I60">
+        <v>-0.1197119855595493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.07954608763789385</v>
+        <v>-0.08735230208191716</v>
       </c>
       <c r="C61">
-        <v>-0.04953119898699405</v>
+        <v>0.02085896527608429</v>
       </c>
       <c r="D61">
-        <v>0.02602077612930633</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05268104468383568</v>
+      </c>
+      <c r="E61">
+        <v>-0.01360732198237765</v>
+      </c>
+      <c r="F61">
+        <v>-0.02727324681703068</v>
+      </c>
+      <c r="G61">
+        <v>-0.04332634282083794</v>
+      </c>
+      <c r="H61">
+        <v>0.06579703610811109</v>
+      </c>
+      <c r="I61">
+        <v>0.03752287636723433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>-0.135766878960908</v>
+        <v>-0.1410031070167696</v>
       </c>
       <c r="C62">
-        <v>-0.05242029902970501</v>
+        <v>0.02565335608447656</v>
       </c>
       <c r="D62">
-        <v>-0.004124308286037469</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04458273479659362</v>
+      </c>
+      <c r="E62">
+        <v>0.04187929311381499</v>
+      </c>
+      <c r="F62">
+        <v>0.03569393056730814</v>
+      </c>
+      <c r="G62">
+        <v>-0.04932614418774369</v>
+      </c>
+      <c r="H62">
+        <v>0.1970045777285969</v>
+      </c>
+      <c r="I62">
+        <v>-0.1105801313057078</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.05721661896729736</v>
+        <v>-0.05129879761461976</v>
       </c>
       <c r="C63">
-        <v>-0.01833524126879973</v>
+        <v>0.01649232630233359</v>
       </c>
       <c r="D63">
-        <v>0.02581868437007655</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01731901697965697</v>
+      </c>
+      <c r="E63">
+        <v>-0.02546308814560526</v>
+      </c>
+      <c r="F63">
+        <v>-0.008074339142651</v>
+      </c>
+      <c r="G63">
+        <v>-0.04967761892335811</v>
+      </c>
+      <c r="H63">
+        <v>0.03598757674768108</v>
+      </c>
+      <c r="I63">
+        <v>0.02993121241437105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.1049817359739463</v>
+        <v>-0.1108758645673571</v>
       </c>
       <c r="C64">
-        <v>-0.0321997298927689</v>
+        <v>0.01107742186384167</v>
       </c>
       <c r="D64">
-        <v>0.01368938283116561</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02952722194475395</v>
+      </c>
+      <c r="E64">
+        <v>-0.033228872881336</v>
+      </c>
+      <c r="F64">
+        <v>-0.05894289230150639</v>
+      </c>
+      <c r="G64">
+        <v>-0.04453187333378029</v>
+      </c>
+      <c r="H64">
+        <v>0.0072824986254043</v>
+      </c>
+      <c r="I64">
+        <v>0.05317477671348999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.1282944872851178</v>
+        <v>-0.1330608129870302</v>
       </c>
       <c r="C65">
-        <v>-0.04805292275766499</v>
+        <v>-0.004581446680066946</v>
       </c>
       <c r="D65">
-        <v>0.02322725813810997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03979753797086691</v>
+      </c>
+      <c r="E65">
+        <v>0.006523622670439505</v>
+      </c>
+      <c r="F65">
+        <v>-0.02284514570296828</v>
+      </c>
+      <c r="G65">
+        <v>-0.09228184320769962</v>
+      </c>
+      <c r="H65">
+        <v>-0.2081636137606592</v>
+      </c>
+      <c r="I65">
+        <v>0.01917609719366173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.1503392715793589</v>
+        <v>-0.1467654320957948</v>
       </c>
       <c r="C66">
-        <v>-0.08065843188196785</v>
+        <v>0.07127182324168466</v>
       </c>
       <c r="D66">
-        <v>0.08446907110155544</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09265018660700806</v>
+      </c>
+      <c r="E66">
+        <v>0.001134335455106884</v>
+      </c>
+      <c r="F66">
+        <v>-0.01645981655601682</v>
+      </c>
+      <c r="G66">
+        <v>-0.0771215970048278</v>
+      </c>
+      <c r="H66">
+        <v>0.07054625347781794</v>
+      </c>
+      <c r="I66">
+        <v>0.1172755566515792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.09464072072649989</v>
+        <v>-0.09918008577536754</v>
       </c>
       <c r="C67">
-        <v>-0.006657339903587435</v>
+        <v>0.03222887909381477</v>
       </c>
       <c r="D67">
-        <v>0.005476175511369545</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007227367622432648</v>
+      </c>
+      <c r="E67">
+        <v>-2.42826259566221e-05</v>
+      </c>
+      <c r="F67">
+        <v>-0.01320057846891191</v>
+      </c>
+      <c r="G67">
+        <v>0.01969788003996718</v>
+      </c>
+      <c r="H67">
+        <v>0.03078693804206496</v>
+      </c>
+      <c r="I67">
+        <v>-0.02211611080116415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.04669495305757456</v>
+        <v>-0.07270461191003627</v>
       </c>
       <c r="C68">
-        <v>-0.04263449760770319</v>
+        <v>-0.2763048749733463</v>
       </c>
       <c r="D68">
-        <v>-0.2561728016021438</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.06502710397599579</v>
+      </c>
+      <c r="E68">
+        <v>-0.03491931202195183</v>
+      </c>
+      <c r="F68">
+        <v>-0.02040549269184775</v>
+      </c>
+      <c r="G68">
+        <v>0.005813187018068596</v>
+      </c>
+      <c r="H68">
+        <v>0.01649461623642759</v>
+      </c>
+      <c r="I68">
+        <v>0.01683931549822158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06384637284901647</v>
+        <v>-0.05592126942686024</v>
       </c>
       <c r="C69">
-        <v>-0.02488395771825217</v>
+        <v>0.01534824368407184</v>
       </c>
       <c r="D69">
-        <v>0.01440378887922904</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01445725945775232</v>
+      </c>
+      <c r="E69">
+        <v>-0.02724377486811971</v>
+      </c>
+      <c r="F69">
+        <v>0.01138230995930306</v>
+      </c>
+      <c r="G69">
+        <v>-0.001833023990282932</v>
+      </c>
+      <c r="H69">
+        <v>0.04088329920178391</v>
+      </c>
+      <c r="I69">
+        <v>0.01105973379554615</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>-0.0116160661647324</v>
+        <v>-0.033018576485415</v>
       </c>
       <c r="C70">
-        <v>-0.0008131142341130332</v>
+        <v>-0.002457037832515397</v>
       </c>
       <c r="D70">
-        <v>-0.01123100249457489</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.002110713850534159</v>
+      </c>
+      <c r="E70">
+        <v>0.02790696130024321</v>
+      </c>
+      <c r="F70">
+        <v>0.005409505599960994</v>
+      </c>
+      <c r="G70">
+        <v>-0.0004493636623693959</v>
+      </c>
+      <c r="H70">
+        <v>-0.02825946476150291</v>
+      </c>
+      <c r="I70">
+        <v>0.01022198981616657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.04488259064873612</v>
+        <v>-0.07872724114484658</v>
       </c>
       <c r="C71">
-        <v>-0.03735500074305294</v>
+        <v>-0.2960138638971281</v>
       </c>
       <c r="D71">
-        <v>-0.2901932708677059</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.07294843654003735</v>
+      </c>
+      <c r="E71">
+        <v>-0.02332271078127921</v>
+      </c>
+      <c r="F71">
+        <v>-0.04391757508582517</v>
+      </c>
+      <c r="G71">
+        <v>-0.0006032533590862733</v>
+      </c>
+      <c r="H71">
+        <v>0.01769842706532712</v>
+      </c>
+      <c r="I71">
+        <v>0.01651165657101928</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1416982251252102</v>
+        <v>-0.1381131392651581</v>
       </c>
       <c r="C72">
-        <v>-0.04399155566404787</v>
+        <v>-0.004542884196714462</v>
       </c>
       <c r="D72">
-        <v>-0.02633526950519869</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01287927293340901</v>
+      </c>
+      <c r="E72">
+        <v>0.00624839654287451</v>
+      </c>
+      <c r="F72">
+        <v>0.1647677010885963</v>
+      </c>
+      <c r="G72">
+        <v>-0.1141121515307494</v>
+      </c>
+      <c r="H72">
+        <v>0.01045076574414466</v>
+      </c>
+      <c r="I72">
+        <v>-0.00609059724469587</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2621421914709596</v>
+        <v>-0.2641871648994815</v>
       </c>
       <c r="C73">
-        <v>-0.06408408143228923</v>
+        <v>0.09133688969654995</v>
       </c>
       <c r="D73">
-        <v>0.0702231061209172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.05998183759468129</v>
+      </c>
+      <c r="E73">
+        <v>0.3339116032674262</v>
+      </c>
+      <c r="F73">
+        <v>-0.002104490096533897</v>
+      </c>
+      <c r="G73">
+        <v>0.2100787969282637</v>
+      </c>
+      <c r="H73">
+        <v>-0.3188257893516341</v>
+      </c>
+      <c r="I73">
+        <v>-0.03390477872762114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.08360560291248337</v>
+        <v>-0.09147744301860407</v>
       </c>
       <c r="C74">
-        <v>-0.0789283177722802</v>
+        <v>0.01251523957670818</v>
       </c>
       <c r="D74">
-        <v>0.004389812423132957</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.07269290012216735</v>
+      </c>
+      <c r="E74">
+        <v>0.003937721127005865</v>
+      </c>
+      <c r="F74">
+        <v>0.000136843846260617</v>
+      </c>
+      <c r="G74">
+        <v>0.0221900089174593</v>
+      </c>
+      <c r="H74">
+        <v>0.1272565407831363</v>
+      </c>
+      <c r="I74">
+        <v>-0.01684114448491634</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1129698021481357</v>
+        <v>-0.1052284324090032</v>
       </c>
       <c r="C75">
-        <v>-0.04791786376820227</v>
+        <v>0.01956264762958742</v>
       </c>
       <c r="D75">
-        <v>0.00311317024207713</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02659908606869774</v>
+      </c>
+      <c r="E75">
+        <v>-0.002112476256424967</v>
+      </c>
+      <c r="F75">
+        <v>0.006999659156290167</v>
+      </c>
+      <c r="G75">
+        <v>0.008500770595273033</v>
+      </c>
+      <c r="H75">
+        <v>0.1166595381346968</v>
+      </c>
+      <c r="I75">
+        <v>-0.05927700596413545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1299805056166686</v>
+        <v>-0.1315677431213877</v>
       </c>
       <c r="C76">
-        <v>-0.07296719756036016</v>
+        <v>0.0338404874236575</v>
       </c>
       <c r="D76">
-        <v>0.02663982904065688</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07453778184527919</v>
+      </c>
+      <c r="E76">
+        <v>-0.007632098642367374</v>
+      </c>
+      <c r="F76">
+        <v>-0.03133100359516574</v>
+      </c>
+      <c r="G76">
+        <v>-0.02226477651096995</v>
+      </c>
+      <c r="H76">
+        <v>0.2594623851088208</v>
+      </c>
+      <c r="I76">
+        <v>-0.09473159458924615</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1310880230008467</v>
+        <v>-0.1014834179141201</v>
       </c>
       <c r="C77">
-        <v>0.03089427116135767</v>
+        <v>0.05461148683241984</v>
       </c>
       <c r="D77">
-        <v>0.06273682782971189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05209332145187672</v>
+      </c>
+      <c r="E77">
+        <v>-0.1315847009670524</v>
+      </c>
+      <c r="F77">
+        <v>-0.07846513843001193</v>
+      </c>
+      <c r="G77">
+        <v>-0.774243180177276</v>
+      </c>
+      <c r="H77">
+        <v>-0.278240804896761</v>
+      </c>
+      <c r="I77">
+        <v>-0.2806448478081379</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.1113183260506513</v>
+        <v>-0.1520600381247076</v>
       </c>
       <c r="C78">
-        <v>-0.02827477461328875</v>
+        <v>0.04956549794608518</v>
       </c>
       <c r="D78">
-        <v>0.07755113578835691</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06034532535137756</v>
+      </c>
+      <c r="E78">
+        <v>-0.09818402258716689</v>
+      </c>
+      <c r="F78">
+        <v>-0.0613539547234797</v>
+      </c>
+      <c r="G78">
+        <v>0.006996347361874299</v>
+      </c>
+      <c r="H78">
+        <v>-0.1454663224917619</v>
+      </c>
+      <c r="I78">
+        <v>0.04371374272109319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1406592122209043</v>
+        <v>-0.1424347718953605</v>
       </c>
       <c r="C79">
-        <v>-0.05307851571991831</v>
+        <v>0.03088447518879447</v>
       </c>
       <c r="D79">
-        <v>0.02926036119478633</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04439117604372738</v>
+      </c>
+      <c r="E79">
+        <v>0.01614420611840794</v>
+      </c>
+      <c r="F79">
+        <v>-0.01446866041190378</v>
+      </c>
+      <c r="G79">
+        <v>-0.02653468199574091</v>
+      </c>
+      <c r="H79">
+        <v>0.1759881077062872</v>
+      </c>
+      <c r="I79">
+        <v>-0.0772430228063843</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.03545498994369499</v>
+        <v>-0.04086401519850902</v>
       </c>
       <c r="C80">
-        <v>-0.01898147869252599</v>
+        <v>0.005486635601321499</v>
       </c>
       <c r="D80">
-        <v>0.02306977110166194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02298160899498873</v>
+      </c>
+      <c r="E80">
+        <v>0.0537933941282112</v>
+      </c>
+      <c r="F80">
+        <v>-0.001489011836248571</v>
+      </c>
+      <c r="G80">
+        <v>0.007236490478984986</v>
+      </c>
+      <c r="H80">
+        <v>0.02155417284137915</v>
+      </c>
+      <c r="I80">
+        <v>0.1200208839020957</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1352091580701597</v>
+        <v>-0.1309429401218275</v>
       </c>
       <c r="C81">
-        <v>-0.06864997979408997</v>
+        <v>0.01193259095558585</v>
       </c>
       <c r="D81">
-        <v>0.008659968949355784</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04944734355925169</v>
+      </c>
+      <c r="E81">
+        <v>0.002388697846855752</v>
+      </c>
+      <c r="F81">
+        <v>-0.01707567737843337</v>
+      </c>
+      <c r="G81">
+        <v>-0.002746635309231925</v>
+      </c>
+      <c r="H81">
+        <v>0.1593925413915362</v>
+      </c>
+      <c r="I81">
+        <v>-0.01966357945975676</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1271478677599251</v>
+        <v>-0.1237997646478783</v>
       </c>
       <c r="C82">
-        <v>-0.06260692808843189</v>
+        <v>0.01746111947739696</v>
       </c>
       <c r="D82">
-        <v>0.01153302894071437</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.05117462622196967</v>
+      </c>
+      <c r="E82">
+        <v>0.01496672854014552</v>
+      </c>
+      <c r="F82">
+        <v>-0.02638086722271023</v>
+      </c>
+      <c r="G82">
+        <v>0.007783842096043616</v>
+      </c>
+      <c r="H82">
+        <v>0.253573092985502</v>
+      </c>
+      <c r="I82">
+        <v>-0.1045074921974901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06965340710657077</v>
+        <v>-0.08325210445455897</v>
       </c>
       <c r="C83">
-        <v>0.04382431295584037</v>
+        <v>0.03139701892174687</v>
       </c>
       <c r="D83">
-        <v>-0.009170390072613294</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04328661535751715</v>
+      </c>
+      <c r="E83">
+        <v>0.001580701287482641</v>
+      </c>
+      <c r="F83">
+        <v>-0.0350421431172384</v>
+      </c>
+      <c r="G83">
+        <v>0.0667221359415789</v>
+      </c>
+      <c r="H83">
+        <v>-0.008975183022587135</v>
+      </c>
+      <c r="I83">
+        <v>0.1006631583260839</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.03753442928492291</v>
+        <v>-0.03398278986540629</v>
       </c>
       <c r="C84">
-        <v>-0.03230907060337067</v>
+        <v>0.03246066291210587</v>
       </c>
       <c r="D84">
-        <v>0.03286311761404239</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03571490780263323</v>
+      </c>
+      <c r="E84">
+        <v>-0.03157301287482784</v>
+      </c>
+      <c r="F84">
+        <v>0.04121011713724639</v>
+      </c>
+      <c r="G84">
+        <v>0.03707159236299844</v>
+      </c>
+      <c r="H84">
+        <v>0.0381667274051768</v>
+      </c>
+      <c r="I84">
+        <v>0.09304472280953478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1149940749897965</v>
+        <v>-0.1204956187539927</v>
       </c>
       <c r="C85">
-        <v>-0.03066967278733741</v>
+        <v>0.02986033851807984</v>
       </c>
       <c r="D85">
-        <v>0.03585160644379991</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02944803651504695</v>
+      </c>
+      <c r="E85">
+        <v>0.007807380598502738</v>
+      </c>
+      <c r="F85">
+        <v>-0.04320722737634127</v>
+      </c>
+      <c r="G85">
+        <v>-0.0003668943335630557</v>
+      </c>
+      <c r="H85">
+        <v>0.1607463332569214</v>
+      </c>
+      <c r="I85">
+        <v>-0.06105371706355043</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.06262334279105955</v>
+        <v>-0.06107375713419941</v>
       </c>
       <c r="C86">
-        <v>-0.02345313741297086</v>
+        <v>0.02695816445322665</v>
       </c>
       <c r="D86">
-        <v>0.06488705551202358</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02367321472866259</v>
+      </c>
+      <c r="E86">
+        <v>-0.01969943488469589</v>
+      </c>
+      <c r="F86">
+        <v>-0.02275492011835563</v>
+      </c>
+      <c r="G86">
+        <v>0.01493978639248313</v>
+      </c>
+      <c r="H86">
+        <v>-0.05796767070251908</v>
+      </c>
+      <c r="I86">
+        <v>-0.03794568759290828</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.1246879354553321</v>
+        <v>-0.1284089462972239</v>
       </c>
       <c r="C87">
-        <v>-0.0628320530705829</v>
+        <v>0.05752064307832733</v>
       </c>
       <c r="D87">
-        <v>0.09105148755729046</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06468607096674636</v>
+      </c>
+      <c r="E87">
+        <v>-0.05613059000567152</v>
+      </c>
+      <c r="F87">
+        <v>-0.03817827508986164</v>
+      </c>
+      <c r="G87">
+        <v>-0.1540401979882285</v>
+      </c>
+      <c r="H87">
+        <v>-0.09969323516299212</v>
+      </c>
+      <c r="I87">
+        <v>6.053964570678045e-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05906070843262257</v>
+        <v>-0.06364973339017535</v>
       </c>
       <c r="C88">
-        <v>-0.02991703199506409</v>
+        <v>0.03053878078263766</v>
       </c>
       <c r="D88">
-        <v>0.02588907479617044</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03798382128993763</v>
+      </c>
+      <c r="E88">
+        <v>0.005320756332778716</v>
+      </c>
+      <c r="F88">
+        <v>-0.02258321260760078</v>
+      </c>
+      <c r="G88">
+        <v>-0.01422690439213766</v>
+      </c>
+      <c r="H88">
+        <v>0.04247130054780528</v>
+      </c>
+      <c r="I88">
+        <v>0.0315569587591169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.07332010689781633</v>
+        <v>-0.1252841250933477</v>
       </c>
       <c r="C89">
-        <v>-0.07539408083531582</v>
+        <v>-0.3757303083112707</v>
       </c>
       <c r="D89">
-        <v>-0.3205432679577878</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.06430058930610492</v>
+      </c>
+      <c r="E89">
+        <v>-0.02808724764880257</v>
+      </c>
+      <c r="F89">
+        <v>-0.08536953610708391</v>
+      </c>
+      <c r="G89">
+        <v>0.02139309421615118</v>
+      </c>
+      <c r="H89">
+        <v>0.01027128592299465</v>
+      </c>
+      <c r="I89">
+        <v>0.08169184627985858</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.06271592068900821</v>
+        <v>-0.09103519150629352</v>
       </c>
       <c r="C90">
-        <v>-0.04036145718027905</v>
+        <v>-0.2771860882751668</v>
       </c>
       <c r="D90">
-        <v>-0.2839049332108745</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.07067109671998827</v>
+      </c>
+      <c r="E90">
+        <v>-0.01879319395849319</v>
+      </c>
+      <c r="F90">
+        <v>-0.03700860978240264</v>
+      </c>
+      <c r="G90">
+        <v>-0.008091022598525939</v>
+      </c>
+      <c r="H90">
+        <v>-0.01886434161493418</v>
+      </c>
+      <c r="I90">
+        <v>0.1028716850232999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.0968658303578151</v>
+        <v>-0.09082657593342383</v>
       </c>
       <c r="C91">
-        <v>-0.05063335889467299</v>
+        <v>0.02142427217941924</v>
       </c>
       <c r="D91">
-        <v>0.00864324695158546</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03596252546969029</v>
+      </c>
+      <c r="E91">
+        <v>-0.0001593816559401864</v>
+      </c>
+      <c r="F91">
+        <v>-0.001336515090506723</v>
+      </c>
+      <c r="G91">
+        <v>0.0191537115333327</v>
+      </c>
+      <c r="H91">
+        <v>0.0879374907589832</v>
+      </c>
+      <c r="I91">
+        <v>-0.04302480027522988</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.05911941675237697</v>
+        <v>-0.09335563272216654</v>
       </c>
       <c r="C92">
-        <v>-0.06315277623015088</v>
+        <v>-0.3314422083681138</v>
       </c>
       <c r="D92">
-        <v>-0.3297798975109528</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.06881304424675895</v>
+      </c>
+      <c r="E92">
+        <v>-0.02570723852797556</v>
+      </c>
+      <c r="F92">
+        <v>-0.04352357550930465</v>
+      </c>
+      <c r="G92">
+        <v>-0.002901123032441627</v>
+      </c>
+      <c r="H92">
+        <v>0.01869243903599794</v>
+      </c>
+      <c r="I92">
+        <v>0.02559523821478374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.05343604638036987</v>
+        <v>-0.09172140851076695</v>
       </c>
       <c r="C93">
-        <v>-0.0541562339071121</v>
+        <v>-0.3142929246711047</v>
       </c>
       <c r="D93">
-        <v>-0.3086570605669018</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.06406337671537618</v>
+      </c>
+      <c r="E93">
+        <v>-0.0007708612317427844</v>
+      </c>
+      <c r="F93">
+        <v>-0.02828471658847972</v>
+      </c>
+      <c r="G93">
+        <v>-0.008939360694731247</v>
+      </c>
+      <c r="H93">
+        <v>-0.005058719981475655</v>
+      </c>
+      <c r="I93">
+        <v>0.008846017576186195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1272494547162386</v>
+        <v>-0.1250955295953654</v>
       </c>
       <c r="C94">
-        <v>-0.03035585917250316</v>
+        <v>0.04140464266902721</v>
       </c>
       <c r="D94">
-        <v>0.05278509362183064</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02383488173565076</v>
+      </c>
+      <c r="E94">
+        <v>-0.0004710202153350315</v>
+      </c>
+      <c r="F94">
+        <v>-0.016688927812816</v>
+      </c>
+      <c r="G94">
+        <v>0.06161137642648257</v>
+      </c>
+      <c r="H94">
+        <v>0.1100660668088392</v>
+      </c>
+      <c r="I94">
+        <v>-0.05026489296576511</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.12517727461927</v>
+        <v>-0.1364709077980023</v>
       </c>
       <c r="C95">
-        <v>-0.01634716189123712</v>
+        <v>0.05937145166235826</v>
       </c>
       <c r="D95">
-        <v>0.07776069888906144</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.02286768462198215</v>
+      </c>
+      <c r="E95">
+        <v>-0.01965830572118179</v>
+      </c>
+      <c r="F95">
+        <v>-0.04792276897195159</v>
+      </c>
+      <c r="G95">
+        <v>-0.05198294032169452</v>
+      </c>
+      <c r="H95">
+        <v>-0.1310317183540705</v>
+      </c>
+      <c r="I95">
+        <v>0.0424295317317479</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>-0.2323282209925492</v>
+        <v>-0.1833350520286997</v>
       </c>
       <c r="C97">
-        <v>-0.06315747084462758</v>
+        <v>-0.03173399987561946</v>
       </c>
       <c r="D97">
-        <v>-0.115825863370149</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.04351454411918443</v>
+      </c>
+      <c r="E97">
+        <v>-0.1439683224900677</v>
+      </c>
+      <c r="F97">
+        <v>0.9262658183609604</v>
+      </c>
+      <c r="G97">
+        <v>-0.06822414741573352</v>
+      </c>
+      <c r="H97">
+        <v>-0.01247085209281672</v>
+      </c>
+      <c r="I97">
+        <v>0.09576276874863704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2577361812596375</v>
+        <v>-0.2762677615825791</v>
       </c>
       <c r="C98">
-        <v>-0.07247207335605543</v>
+        <v>0.05272897941450751</v>
       </c>
       <c r="D98">
-        <v>0.03622234997131386</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06167753615054951</v>
+      </c>
+      <c r="E98">
+        <v>0.2718891242038245</v>
+      </c>
+      <c r="F98">
+        <v>0.05737227241672119</v>
+      </c>
+      <c r="G98">
+        <v>0.2607234946134923</v>
+      </c>
+      <c r="H98">
+        <v>-0.1598162623128886</v>
+      </c>
+      <c r="I98">
+        <v>-0.2267756748033853</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>-0.3601091807949836</v>
+        <v>-0.2288024526735006</v>
       </c>
       <c r="C99">
-        <v>0.9083972327099736</v>
+        <v>0.2804004925114728</v>
       </c>
       <c r="D99">
-        <v>-0.07974583539862226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.9041382749752245</v>
+      </c>
+      <c r="E99">
+        <v>0.03297958187799122</v>
+      </c>
+      <c r="F99">
+        <v>-0.07593271011605836</v>
+      </c>
+      <c r="G99">
+        <v>0.0221193265506785</v>
+      </c>
+      <c r="H99">
+        <v>0.1057161988198086</v>
+      </c>
+      <c r="I99">
+        <v>-0.001267123900315757</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.05186547959701648</v>
+        <v>-0.05411768258533517</v>
       </c>
       <c r="C101">
-        <v>-0.04617339012057475</v>
+        <v>-0.004356431626919284</v>
       </c>
       <c r="D101">
-        <v>-0.002512880111906108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03859836904618281</v>
+      </c>
+      <c r="E101">
+        <v>-0.03452477025973903</v>
+      </c>
+      <c r="F101">
+        <v>-0.03496034716848912</v>
+      </c>
+      <c r="G101">
+        <v>-0.01159616443160332</v>
+      </c>
+      <c r="H101">
+        <v>0.08685928418559745</v>
+      </c>
+      <c r="I101">
+        <v>0.04039494011414872</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
